--- a/comparison_results/PSO_PID_With_Disturbance_Test_6.xlsx
+++ b/comparison_results/PSO_PID_With_Disturbance_Test_6.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04257150135114714</v>
+        <v>0.04047578132408375</v>
       </c>
       <c r="C2" t="n">
-        <v>1.021021021021021</v>
+        <v>0.9509509509509509</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1249750524255688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02686051015974323</v>
+        <v>0.02242193634897045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4384166991075303</v>
+        <v>0.4010436866631427</v>
       </c>
       <c r="H2" t="n">
-        <v>1.301372049072102</v>
+        <v>1.253370005348982</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4483310490187329</v>
+        <v>0.4391893826283337</v>
       </c>
       <c r="J2" t="n">
-        <v>11.62734765831999</v>
+        <v>12.44970164632847</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9720271165555262</v>
+        <v>0.9748424966977128</v>
       </c>
       <c r="L2" t="n">
-        <v>4.999351962732263</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>9.715025274952602</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04281018816807175</v>
+        <v>0.03201578489265451</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5700863171699586</v>
+        <v>0.1891267409886114</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1</v>
+        <v>0.1052349704605506</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1</v>
+        <v>0.07076182635776741</v>
       </c>
       <c r="R2" t="n">
-        <v>1.796056159578568</v>
+        <v>0.5301626827997384</v>
       </c>
       <c r="S2" t="n">
-        <v>4.52574173160166</v>
+        <v>4.390101478490359</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02803382995340988</v>
+        <v>0.001</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9580591631562274</v>
+        <v>1.79979368688075</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04279872073220274</v>
+        <v>0.06380464923008156</v>
       </c>
       <c r="C3" t="n">
-        <v>1.021021021021021</v>
+        <v>1.881881881881882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2572278437841469</v>
+        <v>2.872778830137008</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02030041064047811</v>
+        <v>0.01943030062265779</v>
       </c>
       <c r="G3" t="n">
-        <v>0.432125087470241</v>
+        <v>0.3528186247914293</v>
       </c>
       <c r="H3" t="n">
-        <v>1.284739606626172</v>
+        <v>1.220302812228089</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4487406098228258</v>
+        <v>0.4171927457456928</v>
       </c>
       <c r="J3" t="n">
-        <v>11.67114179144034</v>
+        <v>14.8575335974284</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9694729899159846</v>
+        <v>0.9671806281836028</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.999024193640028</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1453639720821481</v>
+        <v>1.540319663565559</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05968523788600844</v>
+        <v>0.07975873630702809</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7306561094924369</v>
+        <v>1.605070708143337</v>
       </c>
       <c r="P3" t="n">
-        <v>10</v>
+        <v>4.146626886713597</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001</v>
+        <v>0.001005398832358369</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1</v>
+        <v>0.5477254582235546</v>
       </c>
       <c r="S3" t="n">
-        <v>5.715550080986529</v>
+        <v>3.36408906236244</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04263483451493541</v>
+        <v>0.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.414685143822638</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04502849261648595</v>
+        <v>0.06490807007294634</v>
       </c>
       <c r="C4" t="n">
-        <v>1.011011011011011</v>
+        <v>1.911911911911912</v>
       </c>
       <c r="D4" t="n">
-        <v>1.4729779183779</v>
+        <v>3.291783166686742</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01821193189677656</v>
+        <v>0.01264141426935173</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4352119569811961</v>
+        <v>0.3549984312661145</v>
       </c>
       <c r="H4" t="n">
-        <v>1.283402987841517</v>
+        <v>1.197084994249195</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4502140493360792</v>
+        <v>0.4164943280779669</v>
       </c>
       <c r="J4" t="n">
-        <v>11.5362019151253</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9713523289497168</v>
+        <v>0.9754021773898029</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1595162215979069</v>
+        <v>2.476586311901246</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09153378934884586</v>
+        <v>0.0755778420776619</v>
       </c>
       <c r="O4" t="n">
-        <v>1.887356621962204</v>
+        <v>1.971171441543381</v>
       </c>
       <c r="P4" t="n">
-        <v>9.972481475913085</v>
+        <v>5.190561553089259</v>
       </c>
       <c r="Q4" t="n">
         <v>0.001</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1897647116743737</v>
+        <v>1.869483223874941</v>
       </c>
       <c r="S4" t="n">
-        <v>1.096808285864059</v>
+        <v>9.917570932281638</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03464011540600454</v>
+        <v>0.001</v>
       </c>
       <c r="U4" t="n">
-        <v>1.793589650706278</v>
+        <v>0.3440873637850915</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0419839604552087</v>
+        <v>0.04257733611320681</v>
       </c>
       <c r="C5" t="n">
-        <v>1.001001001001001</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1304505363871655</v>
+        <v>0.1955177434116351</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6606606606606606</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02154692111521929</v>
+        <v>0.01776296469674488</v>
       </c>
       <c r="G5" t="n">
-        <v>0.422335718129055</v>
+        <v>0.4312518239258423</v>
       </c>
       <c r="H5" t="n">
-        <v>1.277935003576002</v>
+        <v>1.265211270813857</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4457848806517517</v>
+        <v>0.4495855419259323</v>
       </c>
       <c r="J5" t="n">
-        <v>11.85656675995202</v>
+        <v>11.52386762757739</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9712040040877659</v>
+        <v>0.9725430380943355</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>5.739302805190453</v>
+        <v>1.904331257727617</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05622369206180168</v>
+        <v>0.01808558681223659</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9987067296887042</v>
+        <v>0.5757050091109503</v>
       </c>
       <c r="P5" t="n">
         <v>0.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05916381577201871</v>
+        <v>0.06836521091786341</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5286510761202754</v>
+        <v>0.8355963542205147</v>
       </c>
       <c r="S5" t="n">
-        <v>5.154542653334793</v>
+        <v>8.186467943975067</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1</v>
+        <v>0.06599527806375395</v>
       </c>
       <c r="U5" t="n">
-        <v>1.000137626867081</v>
+        <v>1.363372496656918</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0725033406608975</v>
+        <v>0.04859424997653318</v>
       </c>
       <c r="C6" t="n">
-        <v>2.132132132132132</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D6" t="n">
-        <v>5.204522162567287</v>
+        <v>0.844726396874016</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02005502203149977</v>
+        <v>0.02044772560226257</v>
       </c>
       <c r="G6" t="n">
-        <v>0.326006681190015</v>
+        <v>0.510548015119005</v>
       </c>
       <c r="H6" t="n">
-        <v>1.16637424039868</v>
+        <v>1.387899071269873</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4137911007830442</v>
+        <v>0.4669681527172945</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>10.4089038597279</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9721555963785029</v>
+        <v>0.9706900815355433</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.999872083000978</v>
       </c>
       <c r="M6" t="n">
-        <v>6.931179552395823</v>
+        <v>9.993001408621343</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.362932198386605</v>
+        <v>1.890679459238114</v>
       </c>
       <c r="P6" t="n">
-        <v>4.108336069426764</v>
+        <v>8.446661034085045</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.07512213496297193</v>
+        <v>0.04423088847362826</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4562960875434975</v>
+        <v>1.280714103747791</v>
       </c>
       <c r="S6" t="n">
-        <v>4.100119333955132</v>
+        <v>3.568982622602721</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003645409254293884</v>
+        <v>0.1</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3029528470324461</v>
+        <v>1.468537357087138</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04941984813080562</v>
+        <v>0.04269973222277587</v>
       </c>
       <c r="C7" t="n">
-        <v>1.141141141141141</v>
+        <v>1.041041041041041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6424652874834891</v>
+        <v>0.02067039534111359</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7507507507507507</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03522569441016063</v>
+        <v>0.02074843119396801</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5252502858855712</v>
+        <v>0.4400074435709088</v>
       </c>
       <c r="H7" t="n">
-        <v>1.477372867846826</v>
+        <v>1.279835063323158</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4647534821859419</v>
+        <v>0.451139335266672</v>
       </c>
       <c r="J7" t="n">
-        <v>10.62798491275004</v>
+        <v>11.2633094862309</v>
       </c>
       <c r="K7" t="n">
-        <v>0.954946861145611</v>
+        <v>0.9753724510262358</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.864595559707068</v>
       </c>
       <c r="M7" t="n">
-        <v>9.410597110548318</v>
+        <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07701679085014401</v>
+        <v>0.06196291541597734</v>
       </c>
       <c r="O7" t="n">
-        <v>1.570492380641239</v>
+        <v>0.5291196370379407</v>
       </c>
       <c r="P7" t="n">
-        <v>9.214941850436007</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001</v>
+        <v>0.00105571203340804</v>
       </c>
       <c r="R7" t="n">
-        <v>1.999857515905115</v>
+        <v>0.8625544314335507</v>
       </c>
       <c r="S7" t="n">
-        <v>5.663302959050225</v>
+        <v>0.1396451040368608</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05029364368966117</v>
+        <v>0.01577343660031186</v>
       </c>
       <c r="U7" t="n">
-        <v>1.241590668558477</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04131174027224738</v>
+        <v>0.04735434624889442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.980980980980981</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001662393344172841</v>
+        <v>1.398602267181506</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6506506506506506</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02486208527833346</v>
+        <v>0.0230325423718425</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4151990330613139</v>
+        <v>0.4744839779352121</v>
       </c>
       <c r="H8" t="n">
-        <v>1.279840111171435</v>
+        <v>1.352587761699915</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4421986701660522</v>
+        <v>0.4582413158311525</v>
       </c>
       <c r="J8" t="n">
-        <v>12.23604081458702</v>
+        <v>11.02405621751818</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9714204617459941</v>
+        <v>0.968798124601676</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1</v>
+        <v>4.96460680368793</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06482451647030817</v>
+        <v>0.04240679947305176</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4839875219681081</v>
+        <v>1.635378871747553</v>
       </c>
       <c r="P8" t="n">
-        <v>9.947281736376338</v>
+        <v>7.437091317577993</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08979830141328714</v>
+        <v>0.09987200776553368</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6092929034004648</v>
+        <v>0.7570495170561</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2801305848161474</v>
+        <v>8.051726138895683</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05438209894159385</v>
+        <v>0.01732401954038219</v>
       </c>
       <c r="U8" t="n">
-        <v>1.262306106297614</v>
+        <v>1.981343082039664</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0454708820479466</v>
+        <v>0.04540627341536857</v>
       </c>
       <c r="C9" t="n">
-        <v>1.071071071071071</v>
+        <v>1.051051051051051</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8654991206546647</v>
+        <v>1.062314499972477</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01805651137592976</v>
+        <v>0.02044316449606431</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4598729076260367</v>
+        <v>0.4508884589513535</v>
       </c>
       <c r="H9" t="n">
-        <v>1.303948329297308</v>
+        <v>1.303686176046298</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4564190261298152</v>
+        <v>0.4532954626191945</v>
       </c>
       <c r="J9" t="n">
-        <v>11.03938563847798</v>
+        <v>11.32404882138842</v>
       </c>
       <c r="K9" t="n">
-        <v>0.973430693629265</v>
+        <v>0.9741828264798854</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>0.146244859300304</v>
+        <v>0.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09307033124045976</v>
+        <v>0.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.93662906145075</v>
+        <v>1.989688971434581</v>
       </c>
       <c r="P9" t="n">
-        <v>5.039461049131352</v>
+        <v>6.199673735902981</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.006821123010353178</v>
+        <v>0.1</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1682193946908099</v>
+        <v>0.8404859131396739</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09209192289366364</v>
+        <v>0.09638031810827805</v>
       </c>
       <c r="U9" t="n">
-        <v>0.790486584291179</v>
+        <v>1.401480644252107</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04604296973438774</v>
+        <v>0.04857062738990233</v>
       </c>
       <c r="C10" t="n">
-        <v>1.111111111111111</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5478972490444001</v>
+        <v>0.8259640773208333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01791614863123446</v>
+        <v>0.02151850429860049</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4815790206531265</v>
+        <v>0.5116542343182194</v>
       </c>
       <c r="H10" t="n">
-        <v>1.322365259343864</v>
+        <v>1.388383387088555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4617225727891607</v>
+        <v>0.4669269977709061</v>
       </c>
       <c r="J10" t="n">
-        <v>10.65255276940286</v>
+        <v>10.46299597772949</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9744891715693134</v>
+        <v>0.9713646717947808</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1436458569322024</v>
+        <v>6.139852717205475</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0839479518148256</v>
+        <v>0.03683556782352603</v>
       </c>
       <c r="O10" t="n">
-        <v>1.874533725261785</v>
+        <v>0.3877841748525897</v>
       </c>
       <c r="P10" t="n">
-        <v>8.272166041497947</v>
+        <v>9.199013063335261</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.008605695865445889</v>
+        <v>0.05897765292963317</v>
       </c>
       <c r="R10" t="n">
-        <v>1.745356809103438</v>
+        <v>1.08993748849576</v>
       </c>
       <c r="S10" t="n">
-        <v>3.383080329028897</v>
+        <v>9.142275539807981</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04678947314021732</v>
+        <v>0.04498677975035226</v>
       </c>
       <c r="U10" t="n">
-        <v>1.483067522110188</v>
+        <v>1.971847516954515</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06812808782586879</v>
+        <v>0.04223535494289483</v>
       </c>
       <c r="C11" t="n">
-        <v>2.042042042042042</v>
+        <v>0.960960960960961</v>
       </c>
       <c r="D11" t="n">
-        <v>3.347753616572806</v>
+        <v>1.085900416508618</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6406406406406406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01937328047560788</v>
+        <v>0.01752401347104769</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3642306169686552</v>
+        <v>0.4029263541059395</v>
       </c>
       <c r="H11" t="n">
-        <v>1.227090403338027</v>
+        <v>1.228451784401516</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4170828505681894</v>
+        <v>0.4424485611440218</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>12.0530992273431</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9680010670873456</v>
+        <v>0.9746270617641346</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1025671674872018</v>
+        <v>0.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001</v>
+        <v>0.0988516855656472</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>7.677363462304789</v>
+        <v>0.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001224521557698075</v>
+        <v>0.09776176528599097</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2993841582515921</v>
+        <v>1.277882014607678</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001</v>
+        <v>0.09017934587701343</v>
       </c>
       <c r="U11" t="n">
-        <v>1.746097543289577</v>
+        <v>1.530667984604116</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04470766354517545</v>
+        <v>0.04591722693247964</v>
       </c>
       <c r="C12" t="n">
-        <v>0.970970970970971</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D12" t="n">
-        <v>1.825189011102033</v>
+        <v>0.9395902172413173</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6606606606606606</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02136672640044831</v>
+        <v>0.01942099253899936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4208244237263672</v>
+        <v>0.4648819331459275</v>
       </c>
       <c r="H12" t="n">
-        <v>1.274194637412917</v>
+        <v>1.321822231846668</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4459674969464447</v>
+        <v>0.4570834320250197</v>
       </c>
       <c r="J12" t="n">
-        <v>11.83651102374732</v>
+        <v>10.99991168378926</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9688385705279035</v>
+        <v>0.972663354209784</v>
       </c>
       <c r="L12" t="n">
-        <v>4.997054152285875</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.09981424288955221</v>
+        <v>0.07675541758351416</v>
       </c>
       <c r="O12" t="n">
-        <v>1.999491565283355</v>
+        <v>1.903859435091994</v>
       </c>
       <c r="P12" t="n">
-        <v>5.655293430197386</v>
+        <v>4.979447573285859</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001</v>
+        <v>0.09700534924847196</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1085204890882462</v>
+        <v>1.598120074506541</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7105430869349348</v>
+        <v>0.1</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04170809873386257</v>
+        <v>0.1</v>
       </c>
       <c r="U12" t="n">
-        <v>1.999943902389266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04109784686766557</v>
+        <v>0.04666389241221734</v>
       </c>
       <c r="C13" t="n">
-        <v>0.960960960960961</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3248338990408861</v>
+        <v>1.015429518965387</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6306306306306306</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02381287051090487</v>
+        <v>0.0219465124172072</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4015059872695633</v>
+        <v>0.477320591557641</v>
       </c>
       <c r="H13" t="n">
-        <v>1.25466159511648</v>
+        <v>1.343165880221273</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4394902135091993</v>
+        <v>0.4597378086336614</v>
       </c>
       <c r="J13" t="n">
-        <v>12.40295592478125</v>
+        <v>10.79441449565037</v>
       </c>
       <c r="K13" t="n">
-        <v>0.968778304182693</v>
+        <v>0.9698777726851507</v>
       </c>
       <c r="L13" t="n">
-        <v>4.990801640147893</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1</v>
+        <v>3.826307329429269</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04640056963796232</v>
+        <v>0.05643230329882071</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3815542553694933</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>8.140727624453321</v>
+        <v>0.6885550025268721</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="R13" t="n">
-        <v>1.121833797861748</v>
+        <v>0.1001457603615514</v>
       </c>
       <c r="S13" t="n">
-        <v>8.037129489533303</v>
+        <v>0.1</v>
       </c>
       <c r="T13" t="n">
-        <v>0.058570628638914</v>
+        <v>0.001</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9018751218551937</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04153337754135492</v>
+        <v>0.06395412615912018</v>
       </c>
       <c r="C14" t="n">
-        <v>0.980980980980981</v>
+        <v>1.871871871871872</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0357633882570596</v>
+        <v>3.253061931815697</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6506506506506506</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02384905186511548</v>
+        <v>0.007297689915735206</v>
       </c>
       <c r="G14" t="n">
-        <v>0.415982350313084</v>
+        <v>0.3442351166709279</v>
       </c>
       <c r="H14" t="n">
-        <v>1.289755802889512</v>
+        <v>1.196343610535052</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4427639855034407</v>
+        <v>0.4153782434445397</v>
       </c>
       <c r="J14" t="n">
-        <v>12.14698512700133</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9703259235741888</v>
+        <v>0.9821520575505754</v>
       </c>
       <c r="L14" t="n">
-        <v>4.99944914971419</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>9.843503895386824</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07575174285041902</v>
+        <v>0.01500110645492362</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8376977915519151</v>
+        <v>1.911076321002813</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1872252073286015</v>
+        <v>3.518917391294651</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.04676004993286333</v>
+        <v>0.001</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3528584214905464</v>
+        <v>1.999726612453941</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2796279652727959</v>
+        <v>7.358007406049117</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01663801023434394</v>
+        <v>0.08421285236092278</v>
       </c>
       <c r="U14" t="n">
-        <v>1.5899925020784</v>
+        <v>1.971782508374598</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04985555670205082</v>
+        <v>0.04299578341073189</v>
       </c>
       <c r="C15" t="n">
-        <v>1.191191191191191</v>
+        <v>1.011011011011011</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8304888162378353</v>
+        <v>0.4747805020387829</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7807807807807807</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01891421848871736</v>
+        <v>0.02416224028042235</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5356295130556182</v>
+        <v>0.4303796330500146</v>
       </c>
       <c r="H15" t="n">
-        <v>1.410465211161174</v>
+        <v>1.282914959208934</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4727640955395327</v>
+        <v>0.4477552147687421</v>
       </c>
       <c r="J15" t="n">
-        <v>10.05401308413271</v>
+        <v>11.64121869863163</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9656641888137003</v>
+        <v>0.9714906174511687</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4.961702629254435</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1</v>
+        <v>3.049652071814258</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001</v>
+        <v>0.0352830604178147</v>
       </c>
       <c r="O15" t="n">
-        <v>1.983407874668874</v>
+        <v>0.6820957095325774</v>
       </c>
       <c r="P15" t="n">
-        <v>9.853136376510045</v>
+        <v>0.100041314009769</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1</v>
+        <v>0.0763301203526258</v>
       </c>
       <c r="R15" t="n">
-        <v>1.115783282261627</v>
+        <v>0.9074348513497678</v>
       </c>
       <c r="S15" t="n">
-        <v>1.194458656751356</v>
+        <v>0.1036542631913976</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09157481621529709</v>
+        <v>0.02957222650351598</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7951654368254429</v>
+        <v>1.859781540299916</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06189391385635154</v>
+        <v>0.04528993960353521</v>
       </c>
       <c r="C16" t="n">
-        <v>1.841841841841842</v>
+        <v>1.021021021021021</v>
       </c>
       <c r="D16" t="n">
-        <v>2.814259641566768</v>
+        <v>1.365192453144566</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F16" t="n">
-        <v>0.007868391529556127</v>
+        <v>0.01933800772749148</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3325749567966303</v>
+        <v>0.441495263892775</v>
       </c>
       <c r="H16" t="n">
-        <v>1.162207199706759</v>
+        <v>1.2993441795646</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4149559612628708</v>
+        <v>0.4514472543632187</v>
       </c>
       <c r="J16" t="n">
-        <v>14.92405681330166</v>
+        <v>11.42135930130934</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9816290979690421</v>
+        <v>0.9705290796232579</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.621621921923438</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5072436255761543</v>
+        <v>1.942784948456403</v>
       </c>
       <c r="P16" t="n">
-        <v>1.095624240288429</v>
+        <v>0.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4635961311096921</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1</v>
+        <v>6.258615808947602</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09994948600913617</v>
+        <v>0.09944031183327555</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1</v>
+        <v>1.954572551805203</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06641264504631438</v>
+        <v>0.04611642367573579</v>
       </c>
       <c r="C17" t="n">
-        <v>1.951951951951952</v>
+        <v>1.061061061061061</v>
       </c>
       <c r="D17" t="n">
-        <v>3.342159979431312</v>
+        <v>0.9597997966476868</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02004107876619559</v>
+        <v>0.02422528032307824</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3542876071160519</v>
+        <v>0.4781289534520438</v>
       </c>
       <c r="H17" t="n">
-        <v>1.237570693714426</v>
+        <v>1.340455276033796</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4160254044478723</v>
+        <v>0.4590045901402203</v>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>10.89325439329321</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9635150888415165</v>
+        <v>0.9837693077511173</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4.999627736348035</v>
       </c>
       <c r="M17" t="n">
-        <v>4.629280803042884</v>
+        <v>6.024687847566182</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8198045098716621</v>
+        <v>0.4245151308300486</v>
       </c>
       <c r="P17" t="n">
-        <v>0.100885221920054</v>
+        <v>3.174500691514202</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02976030562035386</v>
+        <v>0.009118051966370753</v>
       </c>
       <c r="R17" t="n">
-        <v>1.102986824137373</v>
+        <v>0.778422472295657</v>
       </c>
       <c r="S17" t="n">
-        <v>9.967391104191595</v>
+        <v>5.683285129278674</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1</v>
+        <v>0.03157664087694643</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89508314055735</v>
+        <v>0.4594245969379198</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0467081493280062</v>
+        <v>0.04498083283151318</v>
       </c>
       <c r="C18" t="n">
-        <v>1.031031031031031</v>
+        <v>0.970970970970971</v>
       </c>
       <c r="D18" t="n">
-        <v>1.728891613623027</v>
+        <v>1.906263329239035</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02132765853800777</v>
+        <v>0.02445980923031004</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4553515866216373</v>
+        <v>0.4219928695982088</v>
       </c>
       <c r="H18" t="n">
-        <v>1.326509064027313</v>
+        <v>1.281128635735096</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4538817255336429</v>
+        <v>0.4455686108824436</v>
       </c>
       <c r="J18" t="n">
-        <v>11.30581912875476</v>
+        <v>11.86080520071905</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9713422383137107</v>
+        <v>0.9685776473647973</v>
       </c>
       <c r="L18" t="n">
-        <v>4.984500469267423</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>2.61714142464935</v>
+        <v>9.517975478619698</v>
       </c>
       <c r="N18" t="n">
-        <v>0.09997921851470951</v>
+        <v>0.001</v>
       </c>
       <c r="O18" t="n">
-        <v>1.983279275135642</v>
+        <v>1.093496949629526</v>
       </c>
       <c r="P18" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.08377727153857453</v>
+        <v>0.1</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5293363508168851</v>
+        <v>1.848137284042296</v>
       </c>
       <c r="S18" t="n">
-        <v>3.614527543411917</v>
+        <v>2.7738857947677</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1</v>
+        <v>0.05827218704867396</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04627044740729934</v>
+        <v>0.0438696644473885</v>
       </c>
       <c r="C19" t="n">
-        <v>1.091091091091091</v>
+        <v>1.051051051051051</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7221081824492082</v>
+        <v>0.2334834629903959</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01980070374848121</v>
+        <v>0.02141528231922217</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4833660476982908</v>
+        <v>0.4475121138763385</v>
       </c>
       <c r="H19" t="n">
-        <v>1.340280862292624</v>
+        <v>1.313106921141911</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4613470450985102</v>
+        <v>0.4522998043455494</v>
       </c>
       <c r="J19" t="n">
-        <v>10.71346924867677</v>
+        <v>11.37715446780677</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9816004521983346</v>
+        <v>0.9670486195195935</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>4.716246371215572</v>
+        <v>0.1363096350311944</v>
       </c>
       <c r="N19" t="n">
-        <v>0.07491538525668485</v>
+        <v>0.0395577904857561</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4248654252365936</v>
+        <v>0.6624901489448844</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7618710407997782</v>
+        <v>6.321792468472972</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04372521153959097</v>
+        <v>0.001835079430248306</v>
       </c>
       <c r="R19" t="n">
-        <v>1.257137210234957</v>
+        <v>0.3232984640840679</v>
       </c>
       <c r="S19" t="n">
-        <v>4.487558908575782</v>
+        <v>9.861467339550829</v>
       </c>
       <c r="T19" t="n">
-        <v>0.07503039616209649</v>
+        <v>0.08116700089021237</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6929809118408161</v>
+        <v>0.1033298129250879</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0438767196835725</v>
+        <v>0.04515569325515255</v>
       </c>
       <c r="C20" t="n">
-        <v>1.061061061061061</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3126542030092416</v>
+        <v>1.173859026091399</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0202365933761932</v>
+        <v>0.02183220388809328</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4473053256289123</v>
+        <v>0.4482432246470727</v>
       </c>
       <c r="H20" t="n">
-        <v>1.289757206837288</v>
+        <v>1.299859682297779</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4529569023712446</v>
+        <v>0.4529633606216034</v>
       </c>
       <c r="J20" t="n">
-        <v>11.29728222579125</v>
+        <v>11.33936367483294</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9694900365687246</v>
+        <v>0.9696804049016017</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.09123570863287683</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
         <v>10</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.003536550621515826</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.635603618907667</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.1450455697115781</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0.0764150049189122</v>
+        <v>0.001</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9950299088270281</v>
+        <v>0.1000000902017932</v>
       </c>
       <c r="S20" t="n">
-        <v>1.278959752935883</v>
+        <v>10</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07622312253896481</v>
+        <v>0.09740059378046238</v>
       </c>
       <c r="U20" t="n">
-        <v>1.240547349941361</v>
+        <v>1.685091955352654</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04615720684002979</v>
+        <v>0.04124478476156362</v>
       </c>
       <c r="C21" t="n">
-        <v>1.081081081081081</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9752692637327521</v>
+        <v>0.08692446218139693</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.6506506506506506</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01668878809970444</v>
+        <v>0.02511455164318237</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4712679211914159</v>
+        <v>0.4108429156514208</v>
       </c>
       <c r="H21" t="n">
-        <v>1.317162610919612</v>
+        <v>1.252403901564832</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4593785909340314</v>
+        <v>0.4417862352533513</v>
       </c>
       <c r="J21" t="n">
-        <v>10.7906303024264</v>
+        <v>12.14658214068617</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9727503611823859</v>
+        <v>0.9788298224593365</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>3.830749985241658</v>
+        <v>0.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.81273767632762</v>
+        <v>1.12364562908298</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1</v>
+        <v>0.3797462371519644</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07734039351118116</v>
+        <v>0.06704705595901184</v>
       </c>
       <c r="R21" t="n">
-        <v>1.880743196558734</v>
+        <v>0.6921914737447991</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1</v>
+        <v>0.04178821003247953</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1</v>
+        <v>1.976147335379441</v>
       </c>
     </row>
   </sheetData>
